--- a/ea/budget-20221121.xlsx
+++ b/ea/budget-20221121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choom\Documents\wk30\dga\repo\report\ea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE2C87-4033-42DA-96CB-0C1BA06B96BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4128D889-4001-418A-A883-326022D75125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1515" windowWidth="19950" windowHeight="13680" xr2:uid="{9949C728-40D2-4935-9E30-A9F5330433A0}"/>
+    <workbookView xWindow="3210" yWindow="975" windowWidth="6390" windowHeight="6225" xr2:uid="{9949C728-40D2-4935-9E30-A9F5330433A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>พัฒนาเอกสารอิเล็กทรอนิกส์</t>
   </si>
   <si>
-    <t>- การเข้าถึงเอกสารอิเล็กฯ</t>
-  </si>
-  <si>
-    <t>- ระบบดิจิทัลสนับสนุน</t>
-  </si>
-  <si>
     <t>พัฒนาระบบดิจิทัลบริการ</t>
   </si>
   <si>
-    <t>พัฒนาระบบเชื่อมโยง API ของหน่วยงาน</t>
-  </si>
-  <si>
     <t>พัฒนาเชื่อมโยงระบบยืนยันตัวตนกลาง</t>
   </si>
   <si>
     <t>พัฒนาเชื่อมโยงระบบรับชำระกลาง</t>
   </si>
   <si>
-    <t>พัฒนาปรับปรุงระบบของหน่วยงาน</t>
-  </si>
-  <si>
     <t>พัฒนาระบบออกใบอนุญาตกลาง</t>
   </si>
   <si>
@@ -87,13 +75,48 @@
   </si>
   <si>
     <t>พัฒนาระบบ HelpDesk</t>
+  </si>
+  <si>
+    <t>การเข้าถึงเอกสารอิเล็กฯ</t>
+  </si>
+  <si>
+    <t>พัฒนาปรับปรุงระบบบริการของหน่วยงาน</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>ปีที่ 1
+ล้านบาท</t>
+  </si>
+  <si>
+    <t>ปีที่ 2
+ล้านบาท</t>
+  </si>
+  <si>
+    <t>ปีที่ 3
+ล้านบาท</t>
+  </si>
+  <si>
+    <t>รวม
+ล้านบาท</t>
+  </si>
+  <si>
+    <t>ต่อบริการ
+ล้านบาท</t>
+  </si>
+  <si>
+    <t>ระบบดิจิทัลดิจิทัลออกใบอนุญาตของหน่วยงาน</t>
+  </si>
+  <si>
+    <t>พัฒนาเชื่อมโยงระบบของหน่วยงาน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +124,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,15 +160,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,274 +510,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108ACF1D-060D-49E8-815C-027A71FF7D5B}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(C3:E3)</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/300</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F16" si="0">SUM(C4:E4)</f>
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4/300</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <f>SUM(C2:E2)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G12" si="1">F6/300</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="0">SUM(C3:E3)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f t="shared" ref="C17:E17" si="1">SUM(C2:C15)</f>
-        <v>100</v>
-      </c>
-      <c r="D17">
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F2:F15)</f>
-        <v>300</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14/300</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15/300</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16/300</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:E18" si="2">SUM(C3:C16)</f>
+        <v>180</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="F18" s="1">
+        <f>SUM(F3:F16)</f>
+        <v>540</v>
+      </c>
+      <c r="G18" s="1">
+        <f>F18/300</f>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
